--- a/CR - Cost Report/BOM/BR/BRA0300_to_BRA0400.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0300_to_BRA0400.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github 2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBFF7DD-AE75-483E-BA5F-E67175C4E96C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>System</t>
   </si>
@@ -57,16 +58,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
     <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
   </si>
   <si>
     <r>
@@ -99,21 +91,6 @@
     <t>BR_03001</t>
   </si>
   <si>
-    <t>BR_03002</t>
-  </si>
-  <si>
-    <t>BR_03003</t>
-  </si>
-  <si>
-    <t>BR_03004</t>
-  </si>
-  <si>
-    <t>BR_03005</t>
-  </si>
-  <si>
-    <t>BR_03006</t>
-  </si>
-  <si>
     <t>BR_A0004</t>
   </si>
   <si>
@@ -123,22 +100,25 @@
     <t>BR_04002</t>
   </si>
   <si>
-    <t>BR_04003</t>
-  </si>
-  <si>
-    <t>BR_04004</t>
-  </si>
-  <si>
-    <t>BR_04005</t>
-  </si>
-  <si>
-    <t>BR_04006</t>
+    <t>Master Cylinder</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Master Cylinder support</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Threaded aluminum part which support the bottom of the master cylinder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,12 +535,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -600,260 +580,89 @@
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
+      <c r="F5" s="4">
+        <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/BR/BRA0300_to_BRA0400.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0300_to_BRA0400.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github 2019\CR - Cost Report\BOM\BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBFF7DD-AE75-483E-BA5F-E67175C4E96C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="BR_A0300" sheetId="2" r:id="rId2"/>
+    <sheet name="BR_A0400" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="36">
   <si>
     <t>System</t>
   </si>
@@ -85,15 +86,9 @@
     <t>Balance bar</t>
   </si>
   <si>
-    <t>BR_A0003</t>
-  </si>
-  <si>
     <t>BR_03001</t>
   </si>
   <si>
-    <t>BR_A0004</t>
-  </si>
-  <si>
     <t>BR_04001</t>
   </si>
   <si>
@@ -113,13 +108,64 @@
   </si>
   <si>
     <t>Threaded aluminum part which support the bottom of the master cylinder</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Assembly Processes</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>To be completed</t>
+  </si>
+  <si>
+    <t>Tba</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>BR_A0300_P</t>
+  </si>
+  <si>
+    <t>BR_A0300</t>
+  </si>
+  <si>
+    <t>BR_03002</t>
+  </si>
+  <si>
+    <t>BR_A0400</t>
+  </si>
+  <si>
+    <t>BR_A0400_P</t>
+  </si>
+  <si>
+    <t>BR - Brake Master Cylinder</t>
+  </si>
+  <si>
+    <t>BR - Balance bar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +208,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +250,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -238,11 +312,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -255,6 +342,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,12 +637,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,17 +692,17 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
@@ -609,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -624,7 +726,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -634,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
@@ -643,30 +745,760 @@
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/BOM/BR/BRA0300_to_BRA0400.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0300_to_BRA0400.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,7 +959,7 @@
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,7 +1324,7 @@
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>

--- a/CR - Cost Report/BOM/BR/BRA0300_to_BRA0400.xlsx
+++ b/CR - Cost Report/BOM/BR/BRA0300_to_BRA0400.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github 2019\CR - Cost Report\BOM\BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D98429-D9F7-431D-9324-D69999EB56DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t>System</t>
   </si>
@@ -122,9 +123,6 @@
     <t>Assembly Processes</t>
   </si>
   <si>
-    <t>Materials</t>
-  </si>
-  <si>
     <t>To be completed</t>
   </si>
   <si>
@@ -159,12 +157,36 @@
   </si>
   <si>
     <t>BR - Balance bar</t>
+  </si>
+  <si>
+    <t>Tighten bolts (Ratchet, Wrench, Screwdriver, …)</t>
+  </si>
+  <si>
+    <t>Fastener install (every)</t>
+  </si>
+  <si>
+    <t>Fixing the upper part of the master cylinder</t>
+  </si>
+  <si>
+    <t>Bolt grade 12.9</t>
+  </si>
+  <si>
+    <t>Nut, grade 12.9</t>
+  </si>
+  <si>
+    <t>Assemble by hand</t>
+  </si>
+  <si>
+    <t>Fixing the lower part of the master cylinder</t>
+  </si>
+  <si>
+    <t>Put the balance bar through the supports of the pedal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -357,6 +379,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,7 +671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -692,7 +726,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -726,7 +760,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -774,20 +808,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
@@ -820,16 +854,18 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
       <c r="H2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -840,297 +876,153 @@
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="E4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="E5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="E6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>25</v>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>25</v>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
       </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1139,11 +1031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,7 +1044,7 @@
     <col min="2" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
@@ -1185,7 +1077,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1194,7 +1086,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1207,47 +1099,45 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
@@ -1257,33 +1147,31 @@
         <v>26</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="8"/>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
@@ -1293,209 +1181,15 @@
         <v>27</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
